--- a/biology/Médecine/Malabsorption_du_fructose/Malabsorption_du_fructose.xlsx
+++ b/biology/Médecine/Malabsorption_du_fructose/Malabsorption_du_fructose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La malabsorption du fructose est une maladie intestinale, due à un déficit en transporteur du fructose dans les entérocytes, entraînant une mauvaise absorption du fructose.
 La malabsorption du fructose ne doit pas être confondue avec l'intolérance au fructose ou l'intolérance héréditaire au fructose, qui est une maladie héréditaire dans laquelle les enzymes hépatiques permettant de digérer le fructose sont déficients.
